--- a/Organizador de declaração de imposto de renda.xlsx
+++ b/Organizador de declaração de imposto de renda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Excel IA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F099775A-73C0-4347-89B9-5DFC2A627D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18599C74-D625-4CBA-8C94-234F2D3564DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" firstSheet="2" activeTab="2" xr2:uid="{CE8B9E4F-DA6A-4D0D-860A-80D181CA2994}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" firstSheet="1" activeTab="1" xr2:uid="{CE8B9E4F-DA6A-4D0D-860A-80D181CA2994}"/>
   </bookViews>
   <sheets>
     <sheet name="Titular" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
   <si>
     <t>NOME</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>Todos os valores de saída mês a mês</t>
+  </si>
+  <si>
+    <t>BcBrasil-2025.pdf</t>
+  </si>
+  <si>
+    <t>Itau-2025.pdf</t>
   </si>
 </sst>
 </file>
@@ -3878,8 +3884,8 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A3:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3976,7 +3982,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
@@ -4010,7 +4016,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4041,7 +4047,7 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A3:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
